--- a/Convocazioni/U16P/2_VICOVARO.xlsx
+++ b/Convocazioni/U16P/2_VICOVARO.xlsx
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C45" s="34" t="inlineStr">
         <is>
-          <t>Vincenzo CIRILLO, Julian GENTILI, Cristiano MIGENI, Lorenzo MIGENI, Tommaso BACIU, Valerio CAGNUCCI, Edoardo BALESTRIERI, Riccardo CASTELLANI, Michele CARUSO, Edoardo PALANCA, Mattia CASTELLANI, Pietro MANCINI</t>
+          <t>Vincenzo CIRILLO, Julian GENTILI, Cristiano MIGENI, Lorenzo MIGENI, Tommaso BACIU, Valerio CAGNUCCI, Edoardo BALESTRIERI, Riccardo CASTELLANI, Michele CARUSO, Edoardo PALANCA, Mattia CASTELLUCCI, Pietro MANCINI</t>
         </is>
       </c>
       <c r="D45" s="7" t="n"/>
